--- a/2. Descuentos/2. NOV_16_30.xlsx
+++ b/2. Descuentos/2. NOV_16_30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E3A15D-647B-44C4-AAB2-D4C874853F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1897E4D6-AFDD-4D95-B264-F4B8B03E8ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="43">
   <si>
     <t>Valor</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>5 cuota</t>
+  </si>
+  <si>
+    <t>2 Lasagna</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +227,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +268,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -427,8 +448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F200" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:F200" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F204" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F204" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DEF36DE3-AB9E-4054-92CE-301AEC08F646}" name="Fecha" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F736B774-8E22-4323-BA5E-C22234709F81}" name="Profesional" dataDxfId="6"/>
@@ -778,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F0063-6ECE-463C-AD9E-7727BD6F2067}">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -867,7 +888,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4">
         <v>20000</v>
@@ -1455,171 +1476,372 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="9">
+        <v>45626</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="11">
         <v>100000</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="9">
+        <v>45626</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="11">
         <v>40000</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="4"/>
+      <c r="A39" s="9">
+        <v>45612</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="11">
+        <v>34000</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="9">
+        <v>45612</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="11">
+        <v>34000</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="4"/>
+      <c r="A41" s="9">
+        <v>45612</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="11">
+        <v>17000</v>
+      </c>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="4"/>
+      <c r="A42" s="9">
+        <v>45612</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="11">
+        <v>17000</v>
+      </c>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="4"/>
+      <c r="A43" s="9">
+        <v>45612</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="11">
+        <v>17000</v>
+      </c>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="9">
+        <v>45612</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="9">
+        <v>45612</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="11">
+        <v>17000</v>
+      </c>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="9">
+        <v>45619</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="4"/>
+      <c r="A47" s="9">
+        <v>45619</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="11">
+        <v>17000</v>
+      </c>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>45619</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="11">
+        <v>17000</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>45619</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>45619</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>45626</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>45626</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>45626</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="11">
+        <v>15000</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="4"/>
@@ -2264,62 +2486,130 @@
       <c r="D192" s="7"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="4"/>
     </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201" s="4">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204" s="4">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 A2 A3:B3 B4:B5 A4:A200" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 A2 A3:B3 B4:B5 A4:A204" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
       <formula1>45292</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4:E200" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4:E204" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B200" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
       <formula1>NombreProfesionales</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C200" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C204" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
       <formula1>Opciones</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D200" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D204" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
       <formula1>INDIRECT($C2)</formula1>
     </dataValidation>
   </dataValidations>

--- a/2. Descuentos/2. NOV_16_30.xlsx
+++ b/2. Descuentos/2. NOV_16_30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1897E4D6-AFDD-4D95-B264-F4B8B03E8ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B20FB-0817-42BE-8EE5-8A36DC0EEFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="44">
   <si>
     <t>Valor</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>2 Lasagna</t>
+  </si>
+  <si>
+    <t>13 dias</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +288,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F0063-6ECE-463C-AD9E-7727BD6F2067}">
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1792,9 +1813,22 @@
       <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="4"/>
+      <c r="A54" s="13">
+        <v>45626</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16">
+        <v>816000</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>

--- a/2. Descuentos/2. NOV_16_30.xlsx
+++ b/2. Descuentos/2. NOV_16_30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\2. Descuentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B20FB-0817-42BE-8EE5-8A36DC0EEFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9939C7-34C1-49EA-89C9-120B526205FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Descuentos" sheetId="1" r:id="rId1"/>
@@ -822,9 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F0063-6ECE-463C-AD9E-7727BD6F2067}">
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1831,24 +1829,72 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="4"/>
+      <c r="A55" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="4">
+        <v>90000</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="4"/>
+      <c r="A56" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="4">
+        <v>40000</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="4"/>
+      <c r="A57" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="4">
+        <v>40000</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="4"/>
+      <c r="A58" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="4">
+        <v>90000</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
@@ -2520,130 +2566,82 @@
       <c r="D192" s="7"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201" s="4">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E202" s="4">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E203" s="4">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E204" s="4">
-        <v>90000</v>
-      </c>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 A2 A3:B3 B4:B5 A4:A204" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 A2 A3:B3 B4:B5 A4:A200" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
       <formula1>45292</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4:E204" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4:E200" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B200" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
       <formula1>NombreProfesionales</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C204" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C200" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
       <formula1>Opciones</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D204" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D200" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
       <formula1>INDIRECT($C2)</formula1>
     </dataValidation>
   </dataValidations>

--- a/2. Descuentos/2. NOV_16_30.xlsx
+++ b/2. Descuentos/2. NOV_16_30.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\2. Descuentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9939C7-34C1-49EA-89C9-120B526205FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B7784-4849-4EC5-8C4D-A7E5A9B2D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Descuentos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="44">
   <si>
     <t>Valor</t>
   </si>
@@ -469,8 +469,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F204" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:F204" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F203" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F203" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DEF36DE3-AB9E-4054-92CE-301AEC08F646}" name="Fecha" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F736B774-8E22-4323-BA5E-C22234709F81}" name="Profesional" dataDxfId="6"/>
@@ -820,9 +820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F0063-6ECE-463C-AD9E-7727BD6F2067}">
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -879,7 +881,7 @@
         <v>45612</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B5" si="0">+B2</f>
+        <f t="shared" ref="B3:B4" si="0">+B2</f>
         <v>Olga Arango</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -915,25 +917,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Olga Arango</v>
+        <v>45612</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
-        <v>80000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45612</v>
+        <v>45618</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -950,7 +951,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45618</v>
+        <v>45620</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -962,12 +963,12 @@
         <v>20</v>
       </c>
       <c r="E7" s="4">
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -979,12 +980,12 @@
         <v>20</v>
       </c>
       <c r="E8" s="4">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -996,12 +997,12 @@
         <v>20</v>
       </c>
       <c r="E9" s="4">
-        <v>20000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45625</v>
+        <v>45623</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1013,15 +1014,15 @@
         <v>20</v>
       </c>
       <c r="E10" s="4">
-        <v>21000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>22</v>
@@ -1030,7 +1031,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="4">
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,10 +1053,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>22</v>
@@ -1064,12 +1065,12 @@
         <v>20</v>
       </c>
       <c r="E13" s="4">
-        <v>60000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -1081,21 +1082,21 @@
         <v>20</v>
       </c>
       <c r="E14" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45619</v>
+        <v>45626</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4">
         <v>50000</v>
@@ -1106,7 +1107,7 @@
         <v>45626</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
@@ -1115,15 +1116,15 @@
         <v>15</v>
       </c>
       <c r="E16" s="4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45626</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
@@ -1132,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1140,7 +1141,7 @@
         <v>45626</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
@@ -1157,7 +1158,7 @@
         <v>45626</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
@@ -1173,8 +1174,8 @@
       <c r="A20" s="3">
         <v>45626</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>5</v>
+      <c r="B20" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>13</v>
@@ -1190,8 +1191,8 @@
       <c r="A21" s="3">
         <v>45626</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>8</v>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>13</v>
@@ -1200,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1208,7 +1209,7 @@
         <v>45626</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>13</v>
@@ -1217,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,7 +1226,7 @@
         <v>45626</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
@@ -1242,24 +1243,27 @@
         <v>45626</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" s="4">
-        <v>50000</v>
+        <v>40000</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45626</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>22</v>
@@ -1278,8 +1282,8 @@
       <c r="A26" s="3">
         <v>45626</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>3</v>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>22</v>
@@ -1288,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="4">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,16 +1306,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E27" s="4">
-        <v>80000</v>
+        <v>125000</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,10 +1329,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4">
-        <v>125000</v>
+        <v>25000</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>35</v>
@@ -1339,19 +1343,19 @@
         <v>45626</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,10 +1369,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4">
-        <v>50000</v>
+        <v>7500</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>36</v>
@@ -1379,19 +1383,19 @@
         <v>45626</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4">
-        <v>7500</v>
+        <v>16512</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,7 +1403,7 @@
         <v>45626</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>22</v>
@@ -1408,7 +1412,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="4">
-        <v>16512</v>
+        <v>77689</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>37</v>
@@ -1419,7 +1423,7 @@
         <v>45626</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>22</v>
@@ -1428,10 +1432,10 @@
         <v>28</v>
       </c>
       <c r="E33" s="4">
-        <v>77689</v>
+        <v>46534</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1443,7 @@
         <v>45626</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>22</v>
@@ -1448,10 +1452,10 @@
         <v>28</v>
       </c>
       <c r="E34" s="4">
-        <v>46534</v>
+        <v>10570</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,7 +1463,7 @@
         <v>45626</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>22</v>
@@ -1468,30 +1472,30 @@
         <v>28</v>
       </c>
       <c r="E35" s="4">
-        <v>10570</v>
+        <v>29453</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="4">
-        <v>29453</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>40</v>
+      <c r="A36" s="9">
+        <v>45626</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="11">
+        <v>100000</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,10 +1509,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" s="11">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>41</v>
@@ -1516,22 +1520,22 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
-        <v>45626</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>5</v>
+        <v>45612</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" s="11">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,7 +1543,7 @@
         <v>45612</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>13</v>
@@ -1559,7 +1563,7 @@
         <v>45612</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>13</v>
@@ -1568,18 +1572,16 @@
         <v>14</v>
       </c>
       <c r="E40" s="11">
-        <v>34000</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>42</v>
-      </c>
+        <v>17000</v>
+      </c>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>45612</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>9</v>
+      <c r="B41" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>13</v>
@@ -1596,8 +1598,8 @@
       <c r="A42" s="9">
         <v>45612</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>5</v>
+      <c r="B42" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>13</v>
@@ -1615,7 +1617,7 @@
         <v>45612</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>13</v>
@@ -1624,16 +1626,18 @@
         <v>14</v>
       </c>
       <c r="E43" s="11">
-        <v>17000</v>
-      </c>
-      <c r="F43" s="12"/>
+        <v>15000</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>45612</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>13</v>
@@ -1642,18 +1646,16 @@
         <v>14</v>
       </c>
       <c r="E44" s="11">
-        <v>15000</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>17000</v>
+      </c>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>45612</v>
+        <v>45619</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>13</v>
@@ -1662,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="11">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="12"/>
     </row>
@@ -1671,7 +1673,7 @@
         <v>45619</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>13</v>
@@ -1680,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="11">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="F46" s="12"/>
     </row>
@@ -1689,7 +1691,7 @@
         <v>45619</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>13</v>
@@ -1707,7 +1709,7 @@
         <v>45619</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>13</v>
@@ -1716,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="11">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="F48" s="12"/>
     </row>
@@ -1725,7 +1727,7 @@
         <v>45619</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>13</v>
@@ -1734,16 +1736,16 @@
         <v>14</v>
       </c>
       <c r="E49" s="11">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
-        <v>45619</v>
+        <v>45626</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>13</v>
@@ -1752,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="11">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="F50" s="12"/>
     </row>
@@ -1761,7 +1763,7 @@
         <v>45626</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>13</v>
@@ -1779,7 +1781,7 @@
         <v>45626</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>13</v>
@@ -1793,39 +1795,38 @@
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>45626</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="11">
-        <v>15000</v>
-      </c>
-      <c r="F53" s="12"/>
+      <c r="A53" s="13">
+        <v>45626</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16">
+        <v>816000</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>45626</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16">
-        <v>816000</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>43</v>
+      <c r="A54" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="4">
+        <v>90000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,7 +1834,7 @@
         <v>45626</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
@@ -1842,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="4">
-        <v>90000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,7 +1851,7 @@
         <v>45626</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>13</v>
@@ -1867,7 +1868,7 @@
         <v>45626</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
@@ -1876,25 +1877,13 @@
         <v>18</v>
       </c>
       <c r="E57" s="4">
-        <v>40000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="4">
-        <v>90000</v>
-      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
@@ -2621,27 +2610,22 @@
       <c r="D203" s="7"/>
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 A2 A3:B3 B4:B5 A4:A200" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 A2 A3:B3 B4 A4:A199" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
       <formula1>45292</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4:E200" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4:E199" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B200" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5:B199" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
       <formula1>NombreProfesionales</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C200" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C199" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
       <formula1>Opciones</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D200" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D199" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
       <formula1>INDIRECT($C2)</formula1>
     </dataValidation>
   </dataValidations>

--- a/2. Descuentos/2. NOV_16_30.xlsx
+++ b/2. Descuentos/2. NOV_16_30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B7784-4849-4EC5-8C4D-A7E5A9B2D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BAC632-538E-44E9-8FE4-09182331C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Valor</t>
   </si>
@@ -469,8 +469,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F203" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:F203" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F201" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F201" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DEF36DE3-AB9E-4054-92CE-301AEC08F646}" name="Fecha" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{F736B774-8E22-4323-BA5E-C22234709F81}" name="Profesional" dataDxfId="6"/>
@@ -820,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F0063-6ECE-463C-AD9E-7727BD6F2067}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1243,39 +1243,39 @@
         <v>45626</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="4">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45626</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4">
-        <v>40000</v>
+        <v>125000</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,16 +1286,16 @@
         <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E26" s="4">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>45626</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
@@ -1312,10 +1312,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="4">
-        <v>125000</v>
+        <v>50000</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>45626</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
@@ -1332,10 +1332,10 @@
         <v>17</v>
       </c>
       <c r="E28" s="4">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,19 +1343,19 @@
         <v>45626</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E29" s="4">
-        <v>50000</v>
+        <v>16512</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,19 +1363,19 @@
         <v>45626</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4">
-        <v>7500</v>
+        <v>77689</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,10 +1392,10 @@
         <v>28</v>
       </c>
       <c r="E31" s="4">
-        <v>16512</v>
+        <v>46534</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,10 +1412,10 @@
         <v>28</v>
       </c>
       <c r="E32" s="4">
-        <v>77689</v>
+        <v>10570</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,90 +1432,90 @@
         <v>28</v>
       </c>
       <c r="E33" s="4">
-        <v>46534</v>
+        <v>29453</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10570</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>39</v>
+      <c r="A34" s="9">
+        <v>45626</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="11">
+        <v>100000</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="4">
-        <v>29453</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>40</v>
+      <c r="A35" s="9">
+        <v>45626</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="11">
+        <v>40000</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>45626</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>5</v>
+        <v>45612</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" s="11">
-        <v>100000</v>
+        <v>34000</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>45626</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>5</v>
+        <v>45612</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E37" s="11">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>45612</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>13</v>
@@ -1532,18 +1532,16 @@
         <v>14</v>
       </c>
       <c r="E38" s="11">
-        <v>34000</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>42</v>
-      </c>
+        <v>17000</v>
+      </c>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>45612</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>30</v>
+      <c r="B39" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>13</v>
@@ -1552,18 +1550,16 @@
         <v>14</v>
       </c>
       <c r="E39" s="11">
-        <v>34000</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>42</v>
-      </c>
+        <v>17000</v>
+      </c>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>45612</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>13</v>
@@ -1580,8 +1576,8 @@
       <c r="A41" s="9">
         <v>45612</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>5</v>
+      <c r="B41" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>13</v>
@@ -1590,16 +1586,18 @@
         <v>14</v>
       </c>
       <c r="E41" s="11">
-        <v>17000</v>
-      </c>
-      <c r="F41" s="12"/>
+        <v>15000</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>45612</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>13</v>
@@ -1614,7 +1612,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>45612</v>
+        <v>45619</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>6</v>
@@ -1628,16 +1626,14 @@
       <c r="E43" s="11">
         <v>15000</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
-        <v>45612</v>
+        <v>45619</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>13</v>
@@ -1655,7 +1651,7 @@
         <v>45619</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>13</v>
@@ -1664,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="11">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="F45" s="12"/>
     </row>
@@ -1673,7 +1669,7 @@
         <v>45619</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>13</v>
@@ -1682,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="11">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="F46" s="12"/>
     </row>
@@ -1691,7 +1687,7 @@
         <v>45619</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>13</v>
@@ -1700,13 +1696,13 @@
         <v>14</v>
       </c>
       <c r="E47" s="11">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>45619</v>
+        <v>45626</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>30</v>
@@ -1724,7 +1720,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>45619</v>
+        <v>45626</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>5</v>
@@ -1736,7 +1732,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="11">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="12"/>
     </row>
@@ -1745,7 +1741,7 @@
         <v>45626</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>13</v>
@@ -1759,57 +1755,58 @@
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>45626</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="13">
+        <v>45626</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16">
+        <v>816000</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="11">
-        <v>15000</v>
-      </c>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>45626</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="11">
-        <v>15000</v>
-      </c>
-      <c r="F52" s="12"/>
+      <c r="C52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="4">
+        <v>90000</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>45626</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16">
-        <v>816000</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>43</v>
+      <c r="A53" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="4">
+        <v>40000</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,7 +1814,7 @@
         <v>45626</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
@@ -1826,7 +1823,10 @@
         <v>18</v>
       </c>
       <c r="E54" s="4">
-        <v>90000</v>
+        <v>40000</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>45626</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
@@ -1843,42 +1843,18 @@
         <v>18</v>
       </c>
       <c r="E55" s="4">
-        <v>40000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="4">
-        <v>40000</v>
-      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>45626</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="4">
-        <v>90000</v>
-      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
@@ -2600,32 +2576,22 @@
       <c r="D201" s="7"/>
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="4"/>
-    </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 A2 A3:B3 B4 A4:A199" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 A2 A3:B3 B4 A4:A197" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
       <formula1>45292</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4:E199" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E4:E197" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5:B199" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5:B197" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
       <formula1>NombreProfesionales</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C199" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C197" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
       <formula1>Opciones</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D199" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D197" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
       <formula1>INDIRECT($C2)</formula1>
     </dataValidation>
   </dataValidations>
